--- a/ttp-manage/WebRoot/WEB-INF/doc/设计/功能模块清单.xlsx
+++ b/ttp-manage/WebRoot/WEB-INF/doc/设计/功能模块清单.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卸货地</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,6 +392,10 @@
   </si>
   <si>
     <t>gps收集需遵守打开网络？是否由发货方决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,25 +636,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -663,7 +660,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -675,28 +675,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="M34" sqref="M23:M34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1037,10 +1037,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1"/>
@@ -1055,101 +1055,101 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="17.25" customHeight="1">
       <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="19"/>
+      <c r="H5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="18"/>
       <c r="J5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1"/>
     <row r="7" spans="2:13" ht="15" customHeight="1">
-      <c r="B7" s="30" t="s">
-        <v>15</v>
+      <c r="B7" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="I7" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15" customHeight="1">
-      <c r="B8" s="31"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -1159,229 +1159,229 @@
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
       <c r="M8" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="21.75" customHeight="1">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="21.75" customHeight="1">
-      <c r="C10" s="13"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="21.75" customHeight="1">
-      <c r="C11" s="14"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="2:13" ht="20.25" customHeight="1">
+      <c r="C12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="2:13" ht="20.25" customHeight="1">
-      <c r="C12" s="11" t="s">
+      <c r="E12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="20.25" customHeight="1">
+      <c r="C13" s="19"/>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="2:13" ht="33.75" customHeight="1">
+      <c r="C14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="20.25" customHeight="1">
-      <c r="C13" s="11"/>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="2:13" ht="33.75" customHeight="1">
-      <c r="C14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="18.75" customHeight="1">
+      <c r="C15" s="28"/>
+      <c r="D15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="2:13" ht="30.75" customHeight="1">
+      <c r="C16" s="28"/>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="18.75" customHeight="1">
-      <c r="C15" s="13"/>
-      <c r="D15" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="2:13" ht="30.75" customHeight="1">
-      <c r="C16" s="13"/>
-      <c r="D16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:13" ht="31.5" customHeight="1">
-      <c r="C17" s="14"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:13" ht="22.5" customHeight="1">
-      <c r="C18" s="12" t="s">
-        <v>38</v>
+      <c r="C18" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>2</v>
@@ -1389,70 +1389,70 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:13" ht="22.5" customHeight="1">
-      <c r="C19" s="13"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="22.5" customHeight="1">
-      <c r="C20" s="14"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:13" ht="27" customHeight="1">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>1</v>
@@ -1460,317 +1460,345 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="27" customHeight="1">
-      <c r="C22" s="11"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="26.25" customHeight="1">
+      <c r="C23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" ht="26.25" customHeight="1">
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="E23" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="32.25" customHeight="1">
-      <c r="C24" s="13"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="24">
+        <v>24</v>
+      </c>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="32.25" customHeight="1">
-      <c r="C25" s="13"/>
+      <c r="C25" s="28"/>
       <c r="D25" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
     </row>
     <row r="26" spans="3:13" ht="20.25" customHeight="1">
-      <c r="C26" s="13"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="30.75" customHeight="1">
-      <c r="C27" s="14"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="24.75" customHeight="1">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="E28" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="24">
+        <v>24</v>
+      </c>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:13" ht="23.25" customHeight="1">
-      <c r="C29" s="14"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="20"/>
     </row>
     <row r="30" spans="3:13" ht="30.75" customHeight="1">
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="E30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" ht="30.75" customHeight="1">
+      <c r="C31" s="29"/>
+      <c r="D31" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" ht="30.75" customHeight="1">
-      <c r="C31" s="14"/>
-      <c r="D31" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="20"/>
     </row>
     <row r="32" spans="3:13" ht="30" customHeight="1">
       <c r="C32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="F32" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:12" ht="26.25" customHeight="1">
       <c r="C33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
+      <c r="I33" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
     </row>
     <row r="34" spans="3:12" ht="29.25" customHeight="1">
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
+      <c r="I34" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="I13:L13"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="I33:L33"/>
     <mergeCell ref="I34:L34"/>
@@ -1784,35 +1812,7 @@
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I18:L18"/>
     <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1824,7 +1824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1837,41 +1837,41 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="s">
         <v>83</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
